--- a/doc/cc5x devices.xlsx
+++ b/doc/cc5x devices.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekter\toolchainCC5X\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="421">
   <si>
     <t>10F200</t>
   </si>
@@ -1255,1209 +1254,6 @@
   </si>
   <si>
     <t>16F1567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC10F200"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC10F202"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC10F204"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC10F206"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC10F220"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC10F222"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC10F320"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC10F322"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12C508"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12C508A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12C509"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12C509A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12C671"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12C672"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12CE518"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12CE519"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12CE673"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12CE674"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F1501"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F1552"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F1571"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F1572"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F1612"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F1822"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F1840"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F508"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F509"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F510"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F519"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F609"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F615"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F617"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F629"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F635"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F675"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F683"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12F752"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12HV609"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12HV615"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12HV752"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12LF1501"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12LF1552"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12LF1571"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12LF1572"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12LF1612"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12LF1822"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC12LF1840"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC14000"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F707"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF707"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C432"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C505"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C52"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C54"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C54A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C54B"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C54C"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C55"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C554"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C556"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C558"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C55A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C56"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C56A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C57"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C57C"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C58"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C58A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C58B"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C61"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C62"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C620"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C620A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C621"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C621A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C622"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C622A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C62A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C62B"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C63"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C63A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C64"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C641"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C642"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C64A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C65"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C65A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C65B"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C66"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C661"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C662"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C67"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C71"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C710"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C711"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C712"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C715"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C716"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C717"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C72"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C72A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C73"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C73A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C73B"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C74"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C745"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C74A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C74B"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C76"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C765"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C77"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C770"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C771"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C773"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C774"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C781"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C782"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C83"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C84"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C923"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C924"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C925"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16C926"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CE623"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CE624"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CE625"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR54A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR54B"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR54C"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR56A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR57B"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR57C"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR58A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR58B"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR62"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR620A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR63"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR64"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR65"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR72"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR83"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16CR84"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1454"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1455"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1459"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1503"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1507"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1508"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1509"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1512"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1513"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1516"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1517"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1518"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1526"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1527"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F15354" opt:fromversion="3.5G"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F15355" opt:fromversion="3.5G"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1519"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1574"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1575"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1578"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1579"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1613"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1614"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1615"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1618"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1619"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1703"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1704"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1705"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1707"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1708"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1709"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1713"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1716"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1717"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1718"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1719"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1764"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1765"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1768"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1769"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1773" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1776" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1777" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1778" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1779" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1782"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1783"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1784"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1786"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1787"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1788"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1789"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1823"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1824"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1825"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1826"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1827"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1828"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1829"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F18313" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F18323" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F18324" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F18325" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F18326" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F18344" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F18345" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F18346" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1847"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F18854" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F18855" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F18857" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F18875" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F18877" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1933"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1934"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1936"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1937"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1938"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1939"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1946"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F1947"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F505"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F506"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F526"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F527"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F54"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F57"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F570"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F59"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F610"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F616"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F627"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F627A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F628"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F628A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F630"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F631"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F636"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F639"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F648A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F676"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F677"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F684"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F685"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F687"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F688"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F689"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F690"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F716"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F72"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F720"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F721"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F722"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F722A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F723"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F723A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F724"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F726"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F727"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F73"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F737"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F74"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F747"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F753"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F76"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F767"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F77"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F777"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F785"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F818"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F819"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F83"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F84"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F84A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F87"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F870"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F871"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F872"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F873"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F873A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F874"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F874A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F876"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F876A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F877"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F877A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F88"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F882"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F883"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F884"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F886"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F887"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F913"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F914"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F916"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F917"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16F946"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16HV540"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16HV610"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16HV616"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16HV753"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16HV785"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1454"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1455"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1459"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1503"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1507"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1508"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1509"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1512"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1513"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1516"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1517"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1518"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1519"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1554"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1559"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1566" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1567" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1574"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1575"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1578"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1579"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1613"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1614"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1615"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1618"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1619"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1703"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1704"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1705"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1707"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1708"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1709"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1713"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1716"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1717"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1718"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1719"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1764"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1765"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1768"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1769"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1773" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1776" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1777" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1778" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1779" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1782"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1783"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1784"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1786"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1787"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1788"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1789"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1823"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1824"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1825"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1826"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1827"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1828"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1829"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF18313" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF18323" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF18324" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF18325" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF18326" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF18344" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF18345" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF18346" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1847"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF18854" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF18855" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF18857" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF18875" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF18877" opt:fromversion="3.5F"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1902"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1903"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1904"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1906"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1907"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1933"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1934"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1936"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1937"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1938"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1939"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1946"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF1947"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF720"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF721"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF722"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF722A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF723"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF723A"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF724"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF726"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;mp:device mp:name="PIC16LF727"/&gt;</t>
   </si>
   <si>
     <t>16LF1526</t>
@@ -2542,13 +1338,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2865,43 +1661,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J309"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>817</v>
+      <c r="A2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5066,7 +3864,7 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>811</v>
+        <v>410</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>152</v>
@@ -5083,7 +3881,7 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>812</v>
+        <v>411</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>153</v>
@@ -5100,7 +3898,7 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>813</v>
+        <v>412</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>154</v>
@@ -5111,7 +3909,7 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>814</v>
+        <v>413</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>155</v>
@@ -7528,2032 +6326,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A402"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>810</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:A402">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>